--- a/data/nips18 baseline.xlsx
+++ b/data/nips18 baseline.xlsx
@@ -1,28 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inkosizhong/lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inkosizhong/lab/MDMC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200552D2-7131-AD4A-92F8-C47CCFE155C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D925CC2-F730-AC4D-8C66-492AFF13D5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="500" windowWidth="24640" windowHeight="16040" xr2:uid="{5AF824A9-6FA3-2641-9198-546DAD8D2810}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$1:$A$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$1:$B$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$4</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -410,7 +402,7 @@
                   <c:v>1.478</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.411</c:v>
+                  <c:v>1.397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -446,7 +438,7 @@
                   <c:v>39.359000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.484999999999999</c:v>
+                  <c:v>39.481999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -504,9 +496,6 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:v>test</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -559,13 +548,18 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-65FF-5E45-B7FA-50AD1BDB5CED}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$4</c:f>
+              <c:f>Sheet1!$C$1:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.2094</c:v>
                 </c:pt>
@@ -577,16 +571,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.71889999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$4</c:f>
+              <c:f>Sheet1!$D$1:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>29.905000000000001</c:v>
                 </c:pt>
@@ -598,6 +595,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35.356999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.481999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1756,7 +1756,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1872,6 +1872,12 @@
       <c r="B5">
         <v>34.998063999999999</v>
       </c>
+      <c r="C5">
+        <v>1.397</v>
+      </c>
+      <c r="D5">
+        <v>39.481999999999999</v>
+      </c>
       <c r="E5">
         <v>0.51219999999999999</v>
       </c>
@@ -1959,10 +1965,10 @@
         <v>33.594000000000001</v>
       </c>
       <c r="G9">
-        <v>1.411</v>
+        <v>1.397</v>
       </c>
       <c r="H9">
-        <v>39.484999999999999</v>
+        <v>39.481999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/nips18 baseline.xlsx
+++ b/data/nips18 baseline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inkosizhong/lab/MDMC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D925CC2-F730-AC4D-8C66-492AFF13D5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D266368-07B6-7440-B5CD-6B41CE5BF3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="500" windowWidth="24640" windowHeight="16040" xr2:uid="{5AF824A9-6FA3-2641-9198-546DAD8D2810}"/>
   </bookViews>
@@ -31,6 +31,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -172,69 +176,8 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>2048</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.71889999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>35.356999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-459B-C94D-9347-F8EA1A216254}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
           <c:tx>
             <c:v>nips18</c:v>
           </c:tx>
@@ -342,160 +285,11 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
+          <c:idx val="6"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:v>8192</c:v>
+            <c:v>实验</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$1:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.085</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.544</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6060000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.617</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.585</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5289999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4990000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.478</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.397</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$1:$H$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>27.529</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36.287999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.417000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>38.901000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.183999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>39.292999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>39.28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39.359000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>39.481999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-459B-C94D-9347-F8EA1A216254}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-459B-C94D-9347-F8EA1A216254}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="4"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -556,10 +350,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$5</c:f>
+              <c:f>Sheet1!$C$1:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.2094</c:v>
                 </c:pt>
@@ -570,20 +364,23 @@
                   <c:v>0.49740000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71889999999999998</c:v>
+                  <c:v>0.71960000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.397</c:v>
+                  <c:v>1.016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$5</c:f>
+              <c:f>Sheet1!$D$1:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>29.905000000000001</c:v>
                 </c:pt>
@@ -594,10 +391,13 @@
                   <c:v>33.594000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.356999999999999</c:v>
+                  <c:v>35.642000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.481999999999999</c:v>
+                  <c:v>37.697000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.747999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD2DAAB-4498-5143-9909-C8AD4FF4D827}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1847,10 +1647,10 @@
         <v>33.028649000000001</v>
       </c>
       <c r="C4">
-        <v>0.71889999999999998</v>
+        <v>0.71960000000000002</v>
       </c>
       <c r="D4">
-        <v>35.356999999999999</v>
+        <v>35.642000000000003</v>
       </c>
       <c r="E4">
         <v>0.51400000000000001</v>
@@ -1873,10 +1673,10 @@
         <v>34.998063999999999</v>
       </c>
       <c r="C5">
-        <v>1.397</v>
+        <v>1.016</v>
       </c>
       <c r="D5">
-        <v>39.481999999999999</v>
+        <v>37.697000000000003</v>
       </c>
       <c r="E5">
         <v>0.51219999999999999</v>
@@ -1898,6 +1698,12 @@
       <c r="B6">
         <v>37.053311999999998</v>
       </c>
+      <c r="C6">
+        <v>1.391</v>
+      </c>
+      <c r="D6">
+        <v>39.747999999999998</v>
+      </c>
       <c r="E6">
         <v>0.50729999999999997</v>
       </c>
@@ -1965,10 +1771,10 @@
         <v>33.594000000000001</v>
       </c>
       <c r="G9">
-        <v>1.397</v>
+        <v>1.391</v>
       </c>
       <c r="H9">
-        <v>39.481999999999999</v>
+        <v>39.747999999999998</v>
       </c>
     </row>
   </sheetData>
